--- a/medicine/Enfance/Antonin_Louchard/Antonin_Louchard.xlsx
+++ b/medicine/Enfance/Antonin_Louchard/Antonin_Louchard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antonin Louchard, né le 21 novembre 1954 à Bobo-Dioulasso (Burkina Faso)[1], est un auteur jeunesse, illustrateur, peintre et dessinateur[2] français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antonin Louchard, né le 21 novembre 1954 à Bobo-Dioulasso (Burkina Faso), est un auteur jeunesse, illustrateur, peintre et dessinateur français.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antonin Louchard a grandi à  Rennes et à Larmor-Plage[3]. Il a suivi des cours de peinture à Lorient, puis a suivi des études de philosophie, de sciences politiques et de journalisme[4] à Paris[1]. Il a été journaliste (à Science et vie[5]) et enseignant[2],[1].
-Il se tourne vers la peinture et l'illustration[1], et ses premiers ouvrages sont publiés en 1990. Il précise en 2017 qu'il a une « prédilection pour la gouache[5]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antonin Louchard a grandi à  Rennes et à Larmor-Plage. Il a suivi des cours de peinture à Lorient, puis a suivi des études de philosophie, de sciences politiques et de journalisme à Paris. Il a été journaliste (à Science et vie) et enseignant,.
+Il se tourne vers la peinture et l'illustration, et ses premiers ouvrages sont publiés en 1990. Il précise en 2017 qu'il a une « prédilection pour la gouache. »
 Il est auteur-illustrateur, et illustrateur de plusieurs dizaines d'ouvrages jeunesse, édités majoritairement aux éditions Thierry Magnier ; il a également été publié par Hachette Jeunesse, Albin Michel jeunesse, le Seuil, ou Syros.
 Parmi les auteurs jeunesse dont il a illustré les textes figurent Daniel Pennac, Christian Poslaniec ou Thierry Lenain.
-Il a coréalisé plusieurs ouvrages avec l'artiste peintre et dessinatrice Katy Couprie[6],[7], dont Des milliards d'étoiles et Oh la vache ! en 1998, Tout un monde[6] en 1999, et Au jardin[6] en 2003. Ces quatre ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[8]. Une exposition est consacrée à leur collaboration[9] en 2019 au Musée de l'illustration jeunesse de Moulins : l'exposition « Imagi[n]er »[10],[11].
-Il a été récompensé par plusieurs prix, dont une Mention au prestigieux prix BolognaRagazzi[12] de la Foire internationale du livre jeunesse de Bologne en 2004 pour Au jardin, coréalisé avec Katy Couprie.
-Il dirige la collection « Tête de lard » des éditions Thierry Magnier[3],[5], et a créé la collection « Aux petits oignons » de Gallimard jeunesse[5].
-Le magazine Griffon lui a consacré un dossier en 2002[13].
+Il a coréalisé plusieurs ouvrages avec l'artiste peintre et dessinatrice Katy Couprie dont Des milliards d'étoiles et Oh la vache ! en 1998, Tout un monde en 1999, et Au jardin en 2003. Ces quatre ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF). Une exposition est consacrée à leur collaboration en 2019 au Musée de l'illustration jeunesse de Moulins : l'exposition « Imagi[n]er »,.
+Il a été récompensé par plusieurs prix, dont une Mention au prestigieux prix BolognaRagazzi de la Foire internationale du livre jeunesse de Bologne en 2004 pour Au jardin, coréalisé avec Katy Couprie.
+Il dirige la collection « Tête de lard » des éditions Thierry Magnier et a créé la collection « Aux petits oignons » de Gallimard jeunesse.
+Le magazine Griffon lui a consacré un dossier en 2002.
 </t>
         </is>
       </c>
@@ -549,16 +563,18 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Prix Sorcières 2000, catégorie Tout-petits, pour Tout un monde, avec Katy Couprie
-Prix Pitchou en 1998 pour Mon Petit cœur et Jean le géant géant, en 2001[14], pour Tout un monde, avec Katy Couprie
-(international) « Honour List » 2002[15] de l' IBBY pour Tout un monde, avec Katy Couprie
- Deutscher Jugendliteraturpreis 2002[16] , catégorie Livre illustré, pour Tout un monde, avec Katy Couprie
- Mention prix BolognaRagazzi 2004[12] (Foire internationale du livre jeunesse de Bologne, Italie), Catégorie Fiction, pour Au jardin, avec Katy Couprie
- Prix P'tits Mômes 2016[17] pour Je suis un lion
-Prix Libr’à Nous 2016[18] pour Je suis un lion
-Plusieurs de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[8], dont quatre coréalisés avec Katy Couprie : Des milliards d'étoiles et Oh la vache ! (1998), Tout un monde (1999), et Au jardin (2003) ; trois qu'il a écrits et illustrés : Perdu (1996), Cinq pattes et C'est la p'tite bête (1998) ; et deux qu'il a illustrés : Paul Éluard, Dans Paris il y a (2001) et Pomme de reinette et pomme d'api : les comptines des petits (2005).
+Prix Pitchou en 1998 pour Mon Petit cœur et Jean le géant géant, en 2001, pour Tout un monde, avec Katy Couprie
+(international) « Honour List » 2002 de l' IBBY pour Tout un monde, avec Katy Couprie
+ Deutscher Jugendliteraturpreis 2002 , catégorie Livre illustré, pour Tout un monde, avec Katy Couprie
+ Mention prix BolognaRagazzi 2004 (Foire internationale du livre jeunesse de Bologne, Italie), Catégorie Fiction, pour Au jardin, avec Katy Couprie
+ Prix P'tits Mômes 2016 pour Je suis un lion
+Prix Libr’à Nous 2016 pour Je suis un lion
+Plusieurs de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF), dont quatre coréalisés avec Katy Couprie : Des milliards d'étoiles et Oh la vache ! (1998), Tout un monde (1999), et Au jardin (2003) ; trois qu'il a écrits et illustrés : Perdu (1996), Cinq pattes et C'est la p'tite bête (1998) ; et deux qu'il a illustrés : Paul Éluard, Dans Paris il y a (2001) et Pomme de reinette et pomme d'api : les comptines des petits (2005).
 </t>
         </is>
       </c>
@@ -587,7 +603,9 @@
           <t>Œuvres[19]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De aïe à zut, texte de Véronique Fleurquin, Nathan, coll. « États d'âme », 1990
 L'Hiver, c'est long ? Des conseils brûlants pour faire de l'hiver un été, texte de Béatrice Fontanel, Nathan, coll. « États d'âme », 1990
@@ -670,7 +688,7 @@
 Le Trésor des dindons. Une aventure d'Emma la poule, texte de Claudine Aubrun, Syros, coll. « Mini Syros Humour », 2002
 Ceci est un livre, illustré par Martin Jarrie, Thierry Magnier, coll. « Tête de lard », 2002 ; nouvelle édition, 2016
 Babyfoot, Thierry Magnier, coll. « Tête de lard », 2003
-Au jardin[20], avec Katy Couprie, Thierry Magnier, 2003 ; réédition, 2008
+Au jardin, avec Katy Couprie, Thierry Magnier, 2003 ; réédition, 2008
 Sur la bouche ! : un livre à embrasser, Gallimard Jeunesse, coll. « Giboulées. Aux petits oignons », 2003 ; réédition, Thierry Magnier, coll. « Tête de lard », 2011 ; réédition, Thierry Magnier, 2017
 Le Câlin : un livre à caresser, Gallimard Jeunesse, coll. « Giboulées. Aux petits oignons », 2003
 Zouzou : un livre à montrer, Gallimard Jeunesse, coll. « Giboulées. Aux petits oignons », 2003
@@ -715,17 +733,17 @@
 Je suis..., Thierry Magnier, 2012
 Jacques Prévert, de Jacques Prévert, Enfance et musique, coll. « Les livres-disques d'Enfance et musique », 2012
 Pouët ! Pouët !, Bayard Jeunesse, coll. « Ma toute petite bibliothèque », 2012
-Le Crocolion[21], Thierry Magnier, 2013 ; nouvelle édition, Les Incorruptibles, 2014
+Le Crocolion, Thierry Magnier, 2013 ; nouvelle édition, Les Incorruptibles, 2014
 Plouf ! La petite bête, Bayard Jeunsse, 2013
 Cékikapété ? : une enquête explosive, Thierry Magnier, 2014
 La Planète de la petite bête, Bayard Jeunesse, 2014
-Le Chevalier noir[22], Thierry Magnier, 2015
+Le Chevalier noir, Thierry Magnier, 2015
 Je veux voler, Seuil jeunesse, 2015
-Je suis un lion[23], Seuil jeunesse, 2015
+Je suis un lion, Seuil jeunesse, 2015
 Le Pire Livre pour apprendre le pot, Seuil jeunesse, 2015
 Grande bouche, Seuil jeunesse, 2016
 L'Affaire du collier : une aventure très nouille, Thierry Magnier, 2016  (ISBN 978-2364748477)
-Bouh ! : le livre qui fait le plus peur du monde[24], Seuil jeunesse, 2016
+Bouh ! : le livre qui fait le plus peur du monde, Seuil jeunesse, 2016
 Pourquoi les lapins ne portent pas de culotte ?, Seuil jeunesse, 2016
 Supercagoule, Seuil jeunesse, 2016
 Patate, Seuil jeunesse, 2017
@@ -747,9 +765,7 @@
 Cui-cui le petit chien, Seuil jeunesse, 2021  (ISBN 9791023516388)
 Pourquoi les lapins ne fêtent pas leur anniversaire, Seuil jeunesse, 2021  (ISBN 9791023510232)
 Tex la terreur, texte de Paul Martin, Seuil jeunesse, 2022  (ISBN 9791023511727)
-Le Bouton magique du professeur lapin, Seuil jeunesse, 2022  (ISBN 9791023517538)
-Séries
-Série Mademoizelle Wiz, texte de Terence Blacker ; une quinzaine de tomes, 1998-2000</t>
+Le Bouton magique du professeur lapin, Seuil jeunesse, 2022  (ISBN 9791023517538)</t>
         </is>
       </c>
     </row>
@@ -774,12 +790,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvres[19]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Série Mademoizelle Wiz, texte de Terence Blacker ; une quinzaine de tomes, 1998-2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antonin_Louchard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antonin_Louchard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Expositions récentes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>« Imagi[n]er »[10],[11], Katy Couprie et Antonin Louchard, Musée de l'illustration jeunesse[9] de Moulins, du 21 septembre 2019 au 2 février 2020</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>« Imagi[n]er » Katy Couprie et Antonin Louchard, Musée de l'illustration jeunesse de Moulins, du 21 septembre 2019 au 2 février 2020</t>
         </is>
       </c>
     </row>
